--- a/assets/template-excel/template-lkpbu-306.xlsx
+++ b/assets/template-excel/template-lkpbu-306.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\reporting\assets\template-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7623369-A84B-4068-9CFC-D9A103FCC3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A8939F-FA5B-4DC6-9B74-1AEDC7E0D8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23145" yWindow="3540" windowWidth="21600" windowHeight="11385" xr2:uid="{685CF059-459F-4908-9878-F530531C536B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{685CF059-459F-4908-9878-F530531C536B}"/>
   </bookViews>
   <sheets>
     <sheet name="F306" sheetId="1" r:id="rId1"/>
@@ -654,20 +654,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -675,47 +675,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -750,35 +723,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,19 +1165,19 @@
     </row>
     <row r="3" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="58"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1194,10 +1194,10 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1341,17 +1341,17 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="27"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1372,26 +1372,26 @@
       <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32" t="s">
+      <c r="F10" s="54"/>
+      <c r="G10" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29" t="s">
+      <c r="H10" s="43"/>
+      <c r="I10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="29" t="s">
+      <c r="J10" s="43"/>
+      <c r="K10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="33"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1412,24 +1412,24 @@
       <c r="B11" s="9">
         <v>777930008</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29">
+      <c r="H11" s="43"/>
+      <c r="I11" s="42">
         <v>306</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="29">
+      <c r="J11" s="43"/>
+      <c r="K11" s="42">
         <v>6</v>
       </c>
-      <c r="L11" s="33"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1450,22 +1450,22 @@
       <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="36" t="s">
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="39"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="50"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1486,24 +1486,24 @@
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="42" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="42" t="s">
+      <c r="H13" s="34"/>
+      <c r="I13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44" t="s">
+      <c r="J13" s="34"/>
+      <c r="K13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="45"/>
+      <c r="L13" s="36"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1524,16 +1524,16 @@
       <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="50"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="41"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1552,16 +1552,16 @@
     <row r="15" spans="1:26" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="55"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1580,16 +1580,16 @@
     <row r="16" spans="1:26" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="55"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1608,16 +1608,16 @@
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="55"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1636,16 +1636,16 @@
     <row r="18" spans="1:26" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="55"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1664,16 +1664,16 @@
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="60"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="1"/>
       <c r="N19" s="2"/>
       <c r="O19" s="1"/>
@@ -29171,47 +29171,14 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="I12:L12"/>
@@ -29224,14 +29191,47 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
